--- a/ChecklistPersonalizada.xlsx
+++ b/ChecklistPersonalizada.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dapem\Desktop\Cubos\Torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1F8DB-5ED8-4E5E-A6A2-786F8E1AADB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591537CA-EDA3-4379-B67F-CE56C7960BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Tareas</t>
   </si>
@@ -166,6 +177,21 @@
   </si>
   <si>
     <t>Revisar la Checklist de Material Adjunta</t>
+  </si>
+  <si>
+    <t>Lo hace el delegado</t>
+  </si>
+  <si>
+    <t>Lo hace la tesorería de la AES</t>
+  </si>
+  <si>
+    <t>Ir a ver el local</t>
+  </si>
+  <si>
+    <t>Se hace el mismo domingo antes de abandonar el local</t>
+  </si>
+  <si>
+    <t>Comprar Folios para FMC</t>
   </si>
 </sst>
 </file>
@@ -297,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,8 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,8 +730,8 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>27</v>
@@ -720,8 +744,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>27</v>
@@ -732,10 +756,13 @@
       <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="E6" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>27</v>
@@ -749,7 +776,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>27</v>
@@ -760,16 +787,19 @@
       <c r="D8" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="E8" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>43</v>
@@ -777,13 +807,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>43</v>
@@ -791,7 +821,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>27</v>
@@ -805,7 +835,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>27</v>
@@ -817,9 +847,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>27</v>
@@ -831,38 +861,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>28</v>
@@ -876,13 +906,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>43</v>
@@ -890,13 +920,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>43</v>
@@ -904,7 +934,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>28</v>
@@ -918,67 +948,67 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="C23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>35</v>
@@ -992,13 +1022,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>43</v>
@@ -1006,13 +1036,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>43</v>
@@ -1020,13 +1050,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>43</v>
@@ -1034,7 +1064,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>35</v>
@@ -1046,73 +1076,75 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="C31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>37</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>43</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>43</v>
@@ -1120,13 +1152,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>43</v>
@@ -1134,20 +1166,48 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD101">
+  <conditionalFormatting sqref="A2:XFD103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>FIND("SI",$D2,1)</formula>
     </cfRule>
